--- a/simple-trading-spreadsheet/trade_log.xlsx
+++ b/simple-trading-spreadsheet/trade_log.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36b9bf61962bf73c/2/github/PyJourney/simple-trading-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3005A022F728D91413088B35299F3F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F262221-CF8C-4FB4-B37E-2580CD177AA2}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD31058E53188DB334FF1E07161E5FD18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB0F1098-CEEF-43D3-9895-BA8E0EDBAF61}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Start Date</t>
   </si>
@@ -43,22 +56,82 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Initial Cost</t>
-  </si>
-  <si>
-    <t>Final Cost</t>
+    <t>Initial Unit Price</t>
+  </si>
+  <si>
+    <t>Final Unit Price</t>
   </si>
   <si>
     <t>Financial Result</t>
   </si>
   <si>
     <t>Percentage Result</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>ASSET786</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>2025-01-12</t>
+  </si>
+  <si>
+    <t>ASSET390</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>ASSET706</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>ASSET464</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>ASSET259</t>
+  </si>
+  <si>
+    <t>2025-03-22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_-"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,11 +181,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,25 +490,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -471,6 +537,196 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <f>IF(AND(ISNUMBER(DATEVALUE(B2)), ISNUMBER(DATEVALUE(A2))), DATEVALUE(B2) - DATEVALUE(A2), "")</f>
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>86.5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>400</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9.94</v>
+      </c>
+      <c r="I2" s="2">
+        <v>19.34</v>
+      </c>
+      <c r="J2" s="2">
+        <f>IF(AND(ISNUMBER(I2), ISNUMBER(H2), ISNUMBER(G2)), (I2-H2)*G2, "")</f>
+        <v>3760</v>
+      </c>
+      <c r="K2" s="3">
+        <f>IF(AND(ISNUMBER(J2), ISNUMBER(H2), ISNUMBER(G2)), J2/(H2*G2), "")</f>
+        <v>0.94567404426559354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <f>IF(AND(ISNUMBER(DATEVALUE(B3)), ISNUMBER(DATEVALUE(A3))), DATEVALUE(B3) - DATEVALUE(A3), "")</f>
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>88.68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="I3" s="2">
+        <v>11.96</v>
+      </c>
+      <c r="J3" s="2">
+        <f>IF(AND(ISNUMBER(I3), ISNUMBER(H3), ISNUMBER(G3)), (I3-H3)*G3, "")</f>
+        <v>1794.0000000000002</v>
+      </c>
+      <c r="K3" s="3">
+        <f>IF(AND(ISNUMBER(J3), ISNUMBER(H3), ISNUMBER(G3)), J3/(H3*G3), "")</f>
+        <v>3.0000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <f>IF(AND(ISNUMBER(DATEVALUE(B4)), ISNUMBER(DATEVALUE(A4))), DATEVALUE(B4) - DATEVALUE(A4), "")</f>
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>57.62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="I4" s="2">
+        <v>11.13</v>
+      </c>
+      <c r="J4" s="2">
+        <f>IF(AND(ISNUMBER(I4), ISNUMBER(H4), ISNUMBER(G4)), (I4-H4)*G4, "")</f>
+        <v>3990</v>
+      </c>
+      <c r="K4" s="3">
+        <f>IF(AND(ISNUMBER(J4), ISNUMBER(H4), ISNUMBER(G4)), J4/(H4*G4), "")</f>
+        <v>1.4843749999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <f>IF(AND(ISNUMBER(DATEVALUE(B5)), ISNUMBER(DATEVALUE(A5))), DATEVALUE(B5) - DATEVALUE(A5), "")</f>
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>63.78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10.36</v>
+      </c>
+      <c r="J5" s="2">
+        <f>IF(AND(ISNUMBER(I5), ISNUMBER(H5), ISNUMBER(G5)), (I5-H5)*G5, "")</f>
+        <v>3511.9999999999995</v>
+      </c>
+      <c r="K5" s="3">
+        <f>IF(AND(ISNUMBER(J5), ISNUMBER(H5), ISNUMBER(G5)), J5/(H5*G5), "")</f>
+        <v>5.5569620253164551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <f>IF(AND(ISNUMBER(DATEVALUE(B6)), ISNUMBER(DATEVALUE(A6))), DATEVALUE(B6) - DATEVALUE(A6), "")</f>
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>82.27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>800</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I6" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="J6" s="2">
+        <f>IF(AND(ISNUMBER(I6), ISNUMBER(H6), ISNUMBER(G6)), (I6-H6)*G6, "")</f>
+        <v>7608</v>
+      </c>
+      <c r="K6" s="3">
+        <f>IF(AND(ISNUMBER(J6), ISNUMBER(H6), ISNUMBER(G6)), J6/(H6*G6), "")</f>
+        <v>4.2455357142857135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
